--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Project\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA914E-7EDE-44DB-A8F2-1DA358AAB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8385287-6267-4086-BDE3-7E9E65F2F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8268" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>DialogueName</t>
     <phoneticPr fontId="2"/>
@@ -162,6 +162,37 @@
   <si>
     <t>なんのよう？</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本8</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本9</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本10</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-Link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-Link</t>
+  </si>
+  <si>
+    <t>3-Link</t>
   </si>
 </sst>
 </file>
@@ -605,21 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD9C0A-8662-46A0-8DC1-7FA5C59E56AC}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
-    <col min="7" max="10" width="6.5" customWidth="1"/>
+    <col min="4" max="10" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -642,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -651,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -667,7 +695,7 @@
       <c r="D2">
         <v>101000</v>
       </c>
-      <c r="J2">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -690,7 +718,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>503000</v>
+        <v>503001</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -704,16 +732,16 @@
       <c r="E4">
         <v>102000</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>503000</v>
+        <v>503002</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -727,10 +755,10 @@
       <c r="E5">
         <v>102000</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
@@ -764,7 +792,7 @@
       <c r="D7">
         <v>103000</v>
       </c>
-      <c r="J7">
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
@@ -781,7 +809,7 @@
       <c r="D8">
         <v>102000</v>
       </c>
-      <c r="J8">
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
@@ -799,6 +827,84 @@
         <v>104000</v>
       </c>
       <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>509000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>101000</v>
+      </c>
+      <c r="E10">
+        <v>102000</v>
+      </c>
+      <c r="F10">
+        <v>103000</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>510000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>101000</v>
+      </c>
+      <c r="E11">
+        <v>102000</v>
+      </c>
+      <c r="F11">
+        <v>103000</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>511000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>101000</v>
+      </c>
+      <c r="E12">
+        <v>102000</v>
+      </c>
+      <c r="F12">
+        <v>103000</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
     </row>

--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8385287-6267-4086-BDE3-7E9E65F2F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7DA69-10CC-4F33-BF8A-48283D374B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD9C0A-8662-46A0-8DC1-7FA5C59E56AC}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>505000</v>
+        <v>504000</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>506000</v>
+        <v>505000</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>507000</v>
+        <v>506000</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>508000</v>
+        <v>507000</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>509000</v>
+        <v>508001</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>510000</v>
+        <v>508002</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>511000</v>
+        <v>508003</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>

--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7DA69-10CC-4F33-BF8A-48283D374B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E074E-9F6C-C240-8E5D-41A5EE02BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="20880" windowHeight="10140" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Dialog</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CharacterID1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -193,6 +189,9 @@
   </si>
   <si>
     <t>3-Link</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
   </si>
 </sst>
 </file>
@@ -203,7 +202,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -216,7 +215,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -324,7 +323,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +339,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,38 +638,38 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="4" max="10" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -682,15 +681,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>501000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>101000</v>
@@ -699,15 +698,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>502000</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>101000</v>
@@ -716,15 +715,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>503001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>101000</v>
@@ -739,15 +738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>503002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>101000</v>
@@ -762,15 +761,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>504000</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>101000</v>
@@ -779,15 +778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>505000</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>103000</v>
@@ -796,15 +795,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>506000</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>102000</v>
@@ -813,15 +812,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>507000</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>104000</v>
@@ -830,15 +829,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>508001</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>101000</v>
@@ -856,15 +855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>508002</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>101000</v>
@@ -882,15 +881,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>508003</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>101000</v>

--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E074E-9F6C-C240-8E5D-41A5EE02BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D0AD0-A979-4596-A142-E31184B7B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="20880" windowHeight="10140" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>DialogueName</t>
     <phoneticPr fontId="2"/>
@@ -43,14 +43,6 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RouletteID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CharacterID1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -65,133 +57,195 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>こんにちは</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>せいやっ！！！</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>行くよっ！</t>
+    <t>基本2</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本1</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本4</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本3-1</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本3-2</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キサマッ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本5</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本6</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本7</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はろはろ～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これでっ！！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんのよう？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本8</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本9</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本10</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-Link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-Link</t>
+  </si>
+  <si>
+    <t>3-Link</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>1Test</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行くよっ！1</t>
     <rPh sb="0" eb="1">
       <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うん！！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HomeID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本2</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本1</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本4</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本3-1</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本3-2</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キサマッ！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本5</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本6</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本7</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>はろはろ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これでっ！！！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なんのよう？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本8</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本9</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本10</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1-Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2-Link</t>
-  </si>
-  <si>
-    <t>3-Link</t>
-  </si>
-  <si>
-    <t>Dialogue</t>
+    <t>うん！！1-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本11</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本12</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本13</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本14</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本15</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本16</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-2Test</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-2Test</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-2(2000-3000)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-2(2000-3000)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ついてこい！1-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK！！2-2</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -202,7 +256,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -215,7 +269,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -323,7 +377,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -635,95 +689,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD9C0A-8662-46A0-8DC1-7FA5C59E56AC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="10" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="7" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>501000</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>101000</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>502000</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>101000</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>503001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>101000</v>
@@ -731,22 +770,19 @@
       <c r="E4">
         <v>102000</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>503002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>101000</v>
@@ -754,90 +790,75 @@
       <c r="E5">
         <v>102000</v>
       </c>
-      <c r="I5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>504000</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>101000</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>505000</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>103000</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>506000</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>102000</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>507000</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>104000</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>508001</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>101000</v>
@@ -848,22 +869,19 @@
       <c r="F10">
         <v>103000</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>508002</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>101000</v>
@@ -874,22 +892,19 @@
       <c r="F11">
         <v>103000</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
+      <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>508003</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>101000</v>
@@ -900,11 +915,128 @@
       <c r="F12">
         <v>103000</v>
       </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
+      <c r="G12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>509001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>101000</v>
+      </c>
+      <c r="E13">
+        <v>102000</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>509002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>101000</v>
+      </c>
+      <c r="E14">
+        <v>102000</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>501001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>102000</v>
+      </c>
+      <c r="E15">
+        <v>103000</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>501002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>102000</v>
+      </c>
+      <c r="E16">
+        <v>103000</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>501101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>101000</v>
+      </c>
+      <c r="E17">
+        <v>102000</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>501102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>101000</v>
+      </c>
+      <c r="E18">
+        <v>102000</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D0AD0-A979-4596-A142-E31184B7B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16BE8E-01C5-4F28-8EF9-CDEEA0F3F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>せいやっ！！！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本2</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>キサマッ！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本5</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -121,18 +113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>はろはろ～</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これでっ！！！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なんのよう？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本8</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -154,97 +134,170 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1-Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2-Link</t>
-  </si>
-  <si>
-    <t>3-Link</t>
-  </si>
-  <si>
     <t>Dialogue</t>
   </si>
   <si>
-    <t>1Test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行くよっ！1</t>
+    <t>基本11</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本12</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本13</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本14</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本15</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本16</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1Test 赤</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいやっ！！！赤</t>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行くよっ！1赤</t>
     <rPh sb="0" eb="1">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>うん！！1-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本11</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本12</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本13</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本14</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本15</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本16</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1-2Test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2-2Test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1-2(2000-3000)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2-2(2000-3000)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ついてこい！1-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OK！！2-2</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うん！！1-2青</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これでっ！！！赤</t>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はろはろ～緑</t>
+    <rPh sb="5" eb="6">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんのよう？青</t>
+    <rPh sb="6" eb="7">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キサマッ！黒</t>
+    <rPh sb="5" eb="6">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-Link赤</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-Link青</t>
+    <rPh sb="6" eb="7">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3-Link緑</t>
+    <rPh sb="6" eb="7">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-2Test赤</t>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-2Test青</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-2(2000-3000)青</t>
+    <rPh sb="14" eb="15">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-2(2000-3000)緑</t>
+    <rPh sb="14" eb="15">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ついてこい！1-2赤</t>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK！！2-2青</t>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -692,7 +745,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -711,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -731,10 +784,10 @@
         <v>501000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>101000</v>
@@ -745,10 +798,10 @@
         <v>502000</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>101000</v>
@@ -759,10 +812,10 @@
         <v>503001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>101000</v>
@@ -779,10 +832,10 @@
         <v>503002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>101000</v>
@@ -799,10 +852,10 @@
         <v>504000</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>101000</v>
@@ -813,10 +866,10 @@
         <v>505000</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>103000</v>
@@ -827,10 +880,10 @@
         <v>506000</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>102000</v>
@@ -841,10 +894,10 @@
         <v>507000</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>104000</v>
@@ -855,10 +908,10 @@
         <v>508001</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>101000</v>
@@ -878,10 +931,10 @@
         <v>508002</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>101000</v>
@@ -901,10 +954,10 @@
         <v>508003</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>101000</v>
@@ -924,7 +977,7 @@
         <v>509001</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -944,7 +997,7 @@
         <v>509002</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -964,7 +1017,7 @@
         <v>501001</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -984,7 +1037,7 @@
         <v>501002</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1004,7 +1057,7 @@
         <v>501101</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1024,7 +1077,7 @@
         <v>501102</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>

--- a/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
+++ b/Assets/DataTable/XlsFile/Dialogue_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16BE8E-01C5-4F28-8EF9-CDEEA0F3F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB9421-8E6B-864B-910E-9F5C4F4A08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="3440" yWindow="1420" windowWidth="17280" windowHeight="8960" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -322,7 +322,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -430,7 +430,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,19 +744,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD9C0A-8662-46A0-8DC1-7FA5C59E56AC}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="7" width="14.296875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>501000</v>
       </c>
@@ -793,7 +793,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>502000</v>
       </c>
@@ -807,7 +807,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>503001</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>503002</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>504000</v>
       </c>
@@ -861,7 +861,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>505000</v>
       </c>
@@ -875,7 +875,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>506000</v>
       </c>
@@ -889,7 +889,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>507000</v>
       </c>
@@ -903,7 +903,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>508001</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>508002</v>
       </c>
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>508003</v>
       </c>
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>509001</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>509002</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>501001</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>501002</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>501101</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>501102</v>
       </c>
